--- a/server/LISTAS/mi/BISAGRA LIBRO-5005.xlsx
+++ b/server/LISTAS/mi/BISAGRA LIBRO-5005.xlsx
@@ -766,7 +766,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="n">
-        <v>45289</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="2">

--- a/server/LISTAS/mi/BISAGRA LIBRO-5005.xlsx
+++ b/server/LISTAS/mi/BISAGRA LIBRO-5005.xlsx
@@ -766,7 +766,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="2">
@@ -849,7 +849,7 @@
       </c>
       <c r="C26" s="20" t="n"/>
       <c r="D26" s="22" t="n">
-        <v>602.352</v>
+        <v>1246</v>
       </c>
       <c r="E26" s="23" t="n"/>
       <c r="F26" s="23" t="n"/>
@@ -868,7 +868,7 @@
       </c>
       <c r="C27" s="20" t="n"/>
       <c r="D27" s="22" t="n">
-        <v>725</v>
+        <v>1246</v>
       </c>
       <c r="E27" s="23" t="n"/>
       <c r="F27" s="23" t="n"/>
@@ -887,7 +887,7 @@
       </c>
       <c r="C28" s="20" t="n"/>
       <c r="D28" s="22" t="n">
-        <v>709.045</v>
+        <v>1467</v>
       </c>
       <c r="E28" s="23" t="n"/>
       <c r="F28" s="23" t="n"/>
@@ -906,7 +906,7 @@
       </c>
       <c r="C29" s="20" t="n"/>
       <c r="D29" s="22" t="n">
-        <v>1225.63</v>
+        <v>2536</v>
       </c>
       <c r="E29" s="23" t="n"/>
       <c r="F29" s="23" t="n"/>
@@ -925,7 +925,7 @@
       </c>
       <c r="C30" s="20" t="n"/>
       <c r="D30" s="22" t="n">
-        <v>1512.193</v>
+        <v>3128</v>
       </c>
       <c r="E30" s="23" t="n"/>
       <c r="F30" s="23" t="n"/>
@@ -944,7 +944,7 @@
       </c>
       <c r="C31" s="20" t="n"/>
       <c r="D31" s="22" t="n">
-        <v>2005.801</v>
+        <v>4150</v>
       </c>
       <c r="E31" s="23" t="n"/>
       <c r="F31" s="23" t="n"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C32" s="20" t="n"/>
       <c r="D32" s="22" t="n">
-        <v>2852.872</v>
+        <v>5903</v>
       </c>
       <c r="E32" s="23" t="n"/>
       <c r="F32" s="23" t="n"/>
@@ -982,7 +982,7 @@
       </c>
       <c r="C33" s="20" t="n"/>
       <c r="D33" s="22" t="n">
-        <v>4224.918</v>
+        <v>8740</v>
       </c>
       <c r="E33" s="23" t="n"/>
       <c r="F33" s="23" t="n"/>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="C35" s="20" t="n"/>
       <c r="D35" s="22" t="n">
-        <v>888.897</v>
+        <v>1840</v>
       </c>
       <c r="E35" s="23" t="n"/>
       <c r="F35" s="23" t="n"/>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" s="20" t="n"/>
       <c r="D36" s="22" t="n">
-        <v>1006.036</v>
+        <v>2082</v>
       </c>
       <c r="E36" s="23" t="n"/>
       <c r="F36" s="23" t="n"/>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="C37" s="20" t="n"/>
       <c r="D37" s="22" t="n">
-        <v>1284.213</v>
+        <v>2657</v>
       </c>
       <c r="E37" s="23" t="n"/>
       <c r="F37" s="23" t="n"/>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="C38" s="20" t="n"/>
       <c r="D38" s="22" t="n">
-        <v>2133.396</v>
+        <v>4414</v>
       </c>
       <c r="E38" s="23" t="n"/>
       <c r="F38" s="23" t="n"/>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="C39" s="20" t="n"/>
       <c r="D39" s="22" t="n">
-        <v>2767.105</v>
+        <v>5725</v>
       </c>
       <c r="E39" s="23" t="n"/>
       <c r="F39" s="23" t="n"/>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="C40" s="20" t="n"/>
       <c r="D40" s="22" t="n">
-        <v>3528.424</v>
+        <v>7299</v>
       </c>
       <c r="E40" s="23" t="n"/>
       <c r="F40" s="23" t="n"/>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="C41" s="20" t="n"/>
       <c r="D41" s="22" t="n">
-        <v>4961.133</v>
+        <v>10263</v>
       </c>
       <c r="E41" s="23" t="n"/>
       <c r="F41" s="23" t="n"/>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="C42" s="20" t="n"/>
       <c r="D42" s="22" t="n">
-        <v>7655.029</v>
+        <v>15834</v>
       </c>
       <c r="E42" s="23" t="n"/>
       <c r="F42" s="23" t="n"/>
@@ -1187,28 +1187,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A12:D12"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/BISAGRA LIBRO-5005.xlsx
+++ b/server/LISTAS/mi/BISAGRA LIBRO-5005.xlsx
@@ -766,7 +766,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="2">

--- a/server/LISTAS/mi/BISAGRA LIBRO-5005.xlsx
+++ b/server/LISTAS/mi/BISAGRA LIBRO-5005.xlsx
@@ -766,7 +766,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="2">
@@ -1187,28 +1187,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A12:D12"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/BISAGRA LIBRO-5005.xlsx
+++ b/server/LISTAS/mi/BISAGRA LIBRO-5005.xlsx
@@ -766,7 +766,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
     </row>
     <row r="2">
@@ -1187,28 +1187,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B42:C42"/>
     <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/BISAGRA LIBRO-5005.xlsx
+++ b/server/LISTAS/mi/BISAGRA LIBRO-5005.xlsx
@@ -766,7 +766,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="2">
@@ -1187,28 +1187,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A12:D12"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/BISAGRA LIBRO-5005.xlsx
+++ b/server/LISTAS/mi/BISAGRA LIBRO-5005.xlsx
@@ -766,7 +766,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
     </row>
     <row r="2">
@@ -849,7 +849,7 @@
       </c>
       <c r="C26" s="20" t="n"/>
       <c r="D26" s="22" t="n">
-        <v>602.352</v>
+        <v>1246</v>
       </c>
       <c r="E26" s="23" t="n"/>
       <c r="F26" s="23" t="n"/>
@@ -868,7 +868,7 @@
       </c>
       <c r="C27" s="20" t="n"/>
       <c r="D27" s="22" t="n">
-        <v>725</v>
+        <v>1246</v>
       </c>
       <c r="E27" s="23" t="n"/>
       <c r="F27" s="23" t="n"/>
@@ -887,7 +887,7 @@
       </c>
       <c r="C28" s="20" t="n"/>
       <c r="D28" s="22" t="n">
-        <v>709.045</v>
+        <v>1467</v>
       </c>
       <c r="E28" s="23" t="n"/>
       <c r="F28" s="23" t="n"/>
@@ -906,7 +906,7 @@
       </c>
       <c r="C29" s="20" t="n"/>
       <c r="D29" s="22" t="n">
-        <v>1225.63</v>
+        <v>2536</v>
       </c>
       <c r="E29" s="23" t="n"/>
       <c r="F29" s="23" t="n"/>
@@ -925,7 +925,7 @@
       </c>
       <c r="C30" s="20" t="n"/>
       <c r="D30" s="22" t="n">
-        <v>1512.193</v>
+        <v>3128</v>
       </c>
       <c r="E30" s="23" t="n"/>
       <c r="F30" s="23" t="n"/>
@@ -944,7 +944,7 @@
       </c>
       <c r="C31" s="20" t="n"/>
       <c r="D31" s="22" t="n">
-        <v>2005.801</v>
+        <v>4150</v>
       </c>
       <c r="E31" s="23" t="n"/>
       <c r="F31" s="23" t="n"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C32" s="20" t="n"/>
       <c r="D32" s="22" t="n">
-        <v>2852.872</v>
+        <v>5903</v>
       </c>
       <c r="E32" s="23" t="n"/>
       <c r="F32" s="23" t="n"/>
@@ -982,7 +982,7 @@
       </c>
       <c r="C33" s="20" t="n"/>
       <c r="D33" s="22" t="n">
-        <v>4224.918</v>
+        <v>8740</v>
       </c>
       <c r="E33" s="23" t="n"/>
       <c r="F33" s="23" t="n"/>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="C35" s="20" t="n"/>
       <c r="D35" s="22" t="n">
-        <v>888.897</v>
+        <v>1840</v>
       </c>
       <c r="E35" s="23" t="n"/>
       <c r="F35" s="23" t="n"/>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" s="20" t="n"/>
       <c r="D36" s="22" t="n">
-        <v>1006.036</v>
+        <v>2082</v>
       </c>
       <c r="E36" s="23" t="n"/>
       <c r="F36" s="23" t="n"/>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="C37" s="20" t="n"/>
       <c r="D37" s="22" t="n">
-        <v>1284.213</v>
+        <v>2657</v>
       </c>
       <c r="E37" s="23" t="n"/>
       <c r="F37" s="23" t="n"/>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="C38" s="20" t="n"/>
       <c r="D38" s="22" t="n">
-        <v>2133.396</v>
+        <v>4414</v>
       </c>
       <c r="E38" s="23" t="n"/>
       <c r="F38" s="23" t="n"/>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="C39" s="20" t="n"/>
       <c r="D39" s="22" t="n">
-        <v>2767.105</v>
+        <v>5725</v>
       </c>
       <c r="E39" s="23" t="n"/>
       <c r="F39" s="23" t="n"/>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="C40" s="20" t="n"/>
       <c r="D40" s="22" t="n">
-        <v>3528.424</v>
+        <v>7299</v>
       </c>
       <c r="E40" s="23" t="n"/>
       <c r="F40" s="23" t="n"/>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="C41" s="20" t="n"/>
       <c r="D41" s="22" t="n">
-        <v>4961.133</v>
+        <v>10263</v>
       </c>
       <c r="E41" s="23" t="n"/>
       <c r="F41" s="23" t="n"/>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="C42" s="20" t="n"/>
       <c r="D42" s="22" t="n">
-        <v>7655.029</v>
+        <v>15834</v>
       </c>
       <c r="E42" s="23" t="n"/>
       <c r="F42" s="23" t="n"/>
@@ -1187,28 +1187,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B42:C42"/>
     <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
